--- a/outputs/Serious_rate_ranges.xlsx
+++ b/outputs/Serious_rate_ranges.xlsx
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>28.214636638454596</v>
+        <v>28.215361301169352</v>
       </c>
       <c r="C2" t="n">
-        <v>63.63338270412336</v>
+        <v>63.61759618647133</v>
       </c>
       <c r="D2" t="n">
-        <v>46.690393972796</v>
+        <v>46.69567539848259</v>
       </c>
       <c r="E2" t="n">
-        <v>66.23180452298664</v>
+        <v>66.25141586891391</v>
       </c>
       <c r="F2" t="n">
-        <v>49.68225958752433</v>
+        <v>49.68549351759238</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.008735874998624</v>
+        <v>18.04148850642611</v>
       </c>
       <c r="C3" t="n">
-        <v>35.25668803978691</v>
+        <v>35.246631703026914</v>
       </c>
       <c r="D3" t="n">
-        <v>22.202595821956507</v>
+        <v>22.188826023996246</v>
       </c>
       <c r="E3" t="n">
-        <v>30.825810991190522</v>
+        <v>30.7985487460612</v>
       </c>
       <c r="F3" t="n">
-        <v>25.658090605638495</v>
+        <v>25.657086525493987</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>47.188659093419815</v>
+        <v>47.15191271156386</v>
       </c>
       <c r="C4" t="n">
-        <v>73.48497417839612</v>
+        <v>73.43467829448964</v>
       </c>
       <c r="D4" t="n">
-        <v>98.85765038649286</v>
+        <v>98.96389949196603</v>
       </c>
       <c r="E4" t="n">
-        <v>103.53434404811593</v>
+        <v>103.37238313588522</v>
       </c>
       <c r="F4" t="n">
-        <v>62.534720513435225</v>
+        <v>62.4983476885998</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>71.8239870897252</v>
+        <v>71.82199329851926</v>
       </c>
       <c r="C5" t="n">
-        <v>175.63378208931437</v>
+        <v>175.7112609876959</v>
       </c>
       <c r="D5" t="n">
-        <v>81.97234560658264</v>
+        <v>81.77012422747653</v>
       </c>
       <c r="E5" t="n">
-        <v>82.4363240357091</v>
+        <v>82.5575193426079</v>
       </c>
       <c r="F5" t="n">
-        <v>100.1350339777139</v>
+        <v>100.1601965323719</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>82.4067305901974</v>
+        <v>82.49730921471625</v>
       </c>
       <c r="C6" t="n">
-        <v>207.17122647099694</v>
+        <v>206.97980992797596</v>
       </c>
       <c r="D6" t="n">
-        <v>123.57076297777114</v>
+        <v>123.47541957318985</v>
       </c>
       <c r="E6" t="n">
-        <v>134.14135504054278</v>
+        <v>134.2714104782545</v>
       </c>
       <c r="F6" t="n">
-        <v>144.82503399604977</v>
+        <v>144.82777323833355</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>87.23151078704637</v>
+        <v>86.91751056482252</v>
       </c>
       <c r="C7" t="n">
-        <v>81.97038152402503</v>
+        <v>81.94788358885211</v>
       </c>
       <c r="D7" t="n">
-        <v>25.08617465081037</v>
+        <v>25.161373501669797</v>
       </c>
       <c r="E7" t="n">
-        <v>21.074828821518643</v>
+        <v>21.109376997313344</v>
       </c>
       <c r="F7" t="n">
-        <v>32.871759615605654</v>
+        <v>32.89602846213342</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>28.21232542309788</v>
+        <v>28.21166162576879</v>
       </c>
       <c r="C2" t="n">
-        <v>63.63402873717658</v>
+        <v>63.61902520357955</v>
       </c>
       <c r="D2" t="n">
-        <v>46.6857508653933</v>
+        <v>46.680518048738875</v>
       </c>
       <c r="E2" t="n">
-        <v>66.23658499046093</v>
+        <v>66.24796833921278</v>
       </c>
       <c r="F2" t="n">
-        <v>49.680840447554566</v>
+        <v>49.68662656199045</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>17.991527185452135</v>
+        <v>18.025559773645007</v>
       </c>
       <c r="C3" t="n">
-        <v>35.227776533910145</v>
+        <v>35.246885611794156</v>
       </c>
       <c r="D3" t="n">
-        <v>22.20886769678171</v>
+        <v>22.182585751647835</v>
       </c>
       <c r="E3" t="n">
-        <v>30.822801755472092</v>
+        <v>30.806257706264677</v>
       </c>
       <c r="F3" t="n">
-        <v>25.65932028590727</v>
+        <v>25.64241650220586</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>47.180664101433266</v>
+        <v>47.127207275949424</v>
       </c>
       <c r="C4" t="n">
-        <v>73.50915090520324</v>
+        <v>73.39875751874581</v>
       </c>
       <c r="D4" t="n">
-        <v>98.83149941739039</v>
+        <v>98.98263811912042</v>
       </c>
       <c r="E4" t="n">
-        <v>103.530585032907</v>
+        <v>103.2695768345598</v>
       </c>
       <c r="F4" t="n">
-        <v>62.52920116860783</v>
+        <v>62.46250510638846</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>71.69484093334951</v>
+        <v>71.64446441448283</v>
       </c>
       <c r="C5" t="n">
-        <v>175.79394234775205</v>
+        <v>175.53417936078225</v>
       </c>
       <c r="D5" t="n">
-        <v>81.97975173995496</v>
+        <v>81.6438343194861</v>
       </c>
       <c r="E5" t="n">
-        <v>82.40284151220706</v>
+        <v>82.51662053668431</v>
       </c>
       <c r="F5" t="n">
-        <v>100.07868388555447</v>
+        <v>100.14509072128311</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>82.4112905219879</v>
+        <v>82.50158091404</v>
       </c>
       <c r="C6" t="n">
-        <v>207.10087665460742</v>
+        <v>206.96566803228023</v>
       </c>
       <c r="D6" t="n">
-        <v>123.58691098649936</v>
+        <v>123.58001570508128</v>
       </c>
       <c r="E6" t="n">
-        <v>134.08198807768264</v>
+        <v>134.37112768137666</v>
       </c>
       <c r="F6" t="n">
-        <v>144.8689066750917</v>
+        <v>144.89616188289762</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>86.80543008334283</v>
+        <v>86.52378323148093</v>
       </c>
       <c r="C7" t="n">
-        <v>81.83368717735391</v>
+        <v>81.98495329457037</v>
       </c>
       <c r="D7" t="n">
-        <v>25.04963876083308</v>
+        <v>25.125262822798796</v>
       </c>
       <c r="E7" t="n">
-        <v>21.034832017998923</v>
+        <v>21.078079510497076</v>
       </c>
       <c r="F7" t="n">
-        <v>32.867526389498934</v>
+        <v>32.8890124984544</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>27.94778524503595</v>
+        <v>27.94536846972617</v>
       </c>
       <c r="C2" t="n">
-        <v>63.11902257507316</v>
+        <v>63.09581305498274</v>
       </c>
       <c r="D2" t="n">
-        <v>46.205474438348794</v>
+        <v>46.17657202965906</v>
       </c>
       <c r="E2" t="n">
-        <v>65.77655642462747</v>
+        <v>65.78704619520266</v>
       </c>
       <c r="F2" t="n">
-        <v>49.484917559019145</v>
+        <v>49.47833559939004</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>17.440130027643566</v>
+        <v>17.50058521539843</v>
       </c>
       <c r="C3" t="n">
-        <v>34.2902827180456</v>
+        <v>34.29788879181036</v>
       </c>
       <c r="D3" t="n">
-        <v>21.42138095700298</v>
+        <v>21.419203454573697</v>
       </c>
       <c r="E3" t="n">
-        <v>30.086034140453798</v>
+        <v>30.019833699964217</v>
       </c>
       <c r="F3" t="n">
-        <v>25.289574881748766</v>
+        <v>25.30654249314035</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>45.983404347104816</v>
+        <v>45.95305548583132</v>
       </c>
       <c r="C4" t="n">
-        <v>70.78297115435478</v>
+        <v>70.57251673683207</v>
       </c>
       <c r="D4" t="n">
-        <v>94.58972750892286</v>
+        <v>94.66987388548219</v>
       </c>
       <c r="E4" t="n">
-        <v>99.10138686702791</v>
+        <v>98.77702717238813</v>
       </c>
       <c r="F4" t="n">
-        <v>61.394765631243764</v>
+        <v>61.43858159249871</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>67.83407541653933</v>
+        <v>67.67027747164741</v>
       </c>
       <c r="C5" t="n">
-        <v>168.9467729449127</v>
+        <v>168.97804289829853</v>
       </c>
       <c r="D5" t="n">
-        <v>76.6111638284529</v>
+        <v>76.56456585484807</v>
       </c>
       <c r="E5" t="n">
-        <v>78.58939857775485</v>
+        <v>79.06057678825921</v>
       </c>
       <c r="F5" t="n">
-        <v>97.64194035274517</v>
+        <v>97.66009074924835</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>76.79889691155881</v>
+        <v>76.8811645746506</v>
       </c>
       <c r="C6" t="n">
-        <v>200.7955544572363</v>
+        <v>200.27393062360306</v>
       </c>
       <c r="D6" t="n">
-        <v>115.46870531477268</v>
+        <v>115.763817024931</v>
       </c>
       <c r="E6" t="n">
-        <v>129.61818314776036</v>
+        <v>129.5686844541759</v>
       </c>
       <c r="F6" t="n">
-        <v>141.88304127301635</v>
+        <v>141.6619132822097</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>74.61098190673655</v>
+        <v>75.21007067669612</v>
       </c>
       <c r="C7" t="n">
-        <v>76.11842954093729</v>
+        <v>76.47986817093549</v>
       </c>
       <c r="D7" t="n">
-        <v>22.519776622477476</v>
+        <v>22.580673788781745</v>
       </c>
       <c r="E7" t="n">
-        <v>19.763712120726506</v>
+        <v>19.747760630859645</v>
       </c>
       <c r="F7" t="n">
-        <v>31.45842015894677</v>
+        <v>31.596874102556555</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>28.492950804658637</v>
+        <v>28.48697245337946</v>
       </c>
       <c r="C2" t="n">
-        <v>64.15733133478957</v>
+        <v>64.13166184525979</v>
       </c>
       <c r="D2" t="n">
-        <v>47.197047531584616</v>
+        <v>47.25134253649399</v>
       </c>
       <c r="E2" t="n">
-        <v>66.69373601873107</v>
+        <v>66.71267124322306</v>
       </c>
       <c r="F2" t="n">
-        <v>49.89360327074382</v>
+        <v>49.897422836011145</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.56020588394487</v>
+        <v>18.57308465707402</v>
       </c>
       <c r="C3" t="n">
-        <v>36.33789552601396</v>
+        <v>36.21666151354265</v>
       </c>
       <c r="D3" t="n">
-        <v>23.004818046573476</v>
+        <v>22.955949606718143</v>
       </c>
       <c r="E3" t="n">
-        <v>31.60737852353329</v>
+        <v>31.63081816525141</v>
       </c>
       <c r="F3" t="n">
-        <v>26.022034772563313</v>
+        <v>26.0563034711307</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>48.47548589950542</v>
+        <v>48.3419587151176</v>
       </c>
       <c r="C4" t="n">
-        <v>76.37034577348909</v>
+        <v>76.35572921804626</v>
       </c>
       <c r="D4" t="n">
-        <v>103.37796926645372</v>
+        <v>103.2099942113425</v>
       </c>
       <c r="E4" t="n">
-        <v>108.09717614781472</v>
+        <v>108.26013210106899</v>
       </c>
       <c r="F4" t="n">
-        <v>63.677574015922524</v>
+        <v>63.65787120135618</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>76.13769540555334</v>
+        <v>76.15571203309044</v>
       </c>
       <c r="C5" t="n">
-        <v>182.39417884902707</v>
+        <v>182.59800992803227</v>
       </c>
       <c r="D5" t="n">
-        <v>87.52287533697162</v>
+        <v>87.24776379268464</v>
       </c>
       <c r="E5" t="n">
-        <v>86.36406279553883</v>
+        <v>86.44078254025368</v>
       </c>
       <c r="F5" t="n">
-        <v>102.66513086638165</v>
+        <v>102.64811494732547</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>88.161250637911</v>
+        <v>88.13497238495876</v>
       </c>
       <c r="C6" t="n">
-        <v>213.75376924088297</v>
+        <v>214.22147788751866</v>
       </c>
       <c r="D6" t="n">
-        <v>131.74378729861508</v>
+        <v>131.3474855812677</v>
       </c>
       <c r="E6" t="n">
-        <v>138.75045978881846</v>
+        <v>138.97756399085014</v>
       </c>
       <c r="F6" t="n">
-        <v>147.75008748545523</v>
+        <v>147.9807872081678</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>100.53607086727258</v>
+        <v>100.41136923483606</v>
       </c>
       <c r="C7" t="n">
-        <v>87.53127048572058</v>
+        <v>87.93171673783874</v>
       </c>
       <c r="D7" t="n">
-        <v>27.782233733039803</v>
+        <v>27.793014267691774</v>
       </c>
       <c r="E7" t="n">
-        <v>22.435854833155084</v>
+        <v>22.53196128776205</v>
       </c>
       <c r="F7" t="n">
-        <v>34.284321545081255</v>
+        <v>34.227564488218036</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Serious_rate_ranges.xlsx
+++ b/outputs/Serious_rate_ranges.xlsx
@@ -35,10 +35,10 @@
     <t>car/taxi</t>
   </si>
   <si>
-    <t>light goods</t>
-  </si>
-  <si>
-    <t>heavy goods</t>
+    <t>van</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
   <si>
     <t>motorcycle</t>
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>28.215361301169352</v>
+        <v>28.226589523863957</v>
       </c>
       <c r="C2" t="n">
-        <v>63.61759618647133</v>
+        <v>63.63247788889409</v>
       </c>
       <c r="D2" t="n">
-        <v>46.69567539848259</v>
+        <v>46.70569732877909</v>
       </c>
       <c r="E2" t="n">
-        <v>66.25141586891391</v>
+        <v>66.26111510563997</v>
       </c>
       <c r="F2" t="n">
-        <v>49.68549351759238</v>
+        <v>49.696879994009706</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.04148850642611</v>
+        <v>18.030124017298025</v>
       </c>
       <c r="C3" t="n">
-        <v>35.246631703026914</v>
+        <v>35.230838513217684</v>
       </c>
       <c r="D3" t="n">
-        <v>22.188826023996246</v>
+        <v>22.20049422350362</v>
       </c>
       <c r="E3" t="n">
-        <v>30.7985487460612</v>
+        <v>30.848362614242177</v>
       </c>
       <c r="F3" t="n">
-        <v>25.657086525493987</v>
+        <v>25.6660401882709</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>47.15191271156386</v>
+        <v>47.1382534249914</v>
       </c>
       <c r="C4" t="n">
-        <v>73.43467829448964</v>
+        <v>73.47650107378517</v>
       </c>
       <c r="D4" t="n">
-        <v>98.96389949196603</v>
+        <v>98.90334678166298</v>
       </c>
       <c r="E4" t="n">
-        <v>103.37238313588522</v>
+        <v>103.43121897982007</v>
       </c>
       <c r="F4" t="n">
-        <v>62.4983476885998</v>
+        <v>62.497082616026375</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>71.82199329851926</v>
+        <v>71.75765393550171</v>
       </c>
       <c r="C5" t="n">
-        <v>175.7112609876959</v>
+        <v>176.1467472933713</v>
       </c>
       <c r="D5" t="n">
-        <v>81.77012422747653</v>
+        <v>81.6342166457821</v>
       </c>
       <c r="E5" t="n">
-        <v>82.5575193426079</v>
+        <v>82.64389138831912</v>
       </c>
       <c r="F5" t="n">
-        <v>100.1601965323719</v>
+        <v>100.24744738867435</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>82.49730921471625</v>
+        <v>82.55877852211445</v>
       </c>
       <c r="C6" t="n">
-        <v>206.97980992797596</v>
+        <v>207.07985290056374</v>
       </c>
       <c r="D6" t="n">
-        <v>123.47541957318985</v>
+        <v>123.41858619800382</v>
       </c>
       <c r="E6" t="n">
-        <v>134.2714104782545</v>
+        <v>134.16043047914533</v>
       </c>
       <c r="F6" t="n">
-        <v>144.82777323833355</v>
+        <v>144.81562916725707</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>86.91751056482252</v>
+        <v>86.30973005919193</v>
       </c>
       <c r="C7" t="n">
-        <v>81.94788358885211</v>
+        <v>81.91330094216794</v>
       </c>
       <c r="D7" t="n">
-        <v>25.161373501669797</v>
+        <v>25.142572102981998</v>
       </c>
       <c r="E7" t="n">
-        <v>21.109376997313344</v>
+        <v>21.056517711895943</v>
       </c>
       <c r="F7" t="n">
-        <v>32.89602846213342</v>
+        <v>32.83602357493486</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>28.21166162576879</v>
+        <v>28.220895209248056</v>
       </c>
       <c r="C2" t="n">
-        <v>63.61902520357955</v>
+        <v>63.63276910367853</v>
       </c>
       <c r="D2" t="n">
-        <v>46.680518048738875</v>
+        <v>46.707034898651</v>
       </c>
       <c r="E2" t="n">
-        <v>66.24796833921278</v>
+        <v>66.26324506200365</v>
       </c>
       <c r="F2" t="n">
-        <v>49.68662656199045</v>
+        <v>49.699221081166925</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.025559773645007</v>
+        <v>18.016162801974904</v>
       </c>
       <c r="C3" t="n">
-        <v>35.246885611794156</v>
+        <v>35.2227460082334</v>
       </c>
       <c r="D3" t="n">
-        <v>22.182585751647835</v>
+        <v>22.198583466928287</v>
       </c>
       <c r="E3" t="n">
-        <v>30.806257706264677</v>
+        <v>30.829207508439183</v>
       </c>
       <c r="F3" t="n">
-        <v>25.64241650220586</v>
+        <v>25.669659247565917</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>47.127207275949424</v>
+        <v>47.139746372204726</v>
       </c>
       <c r="C4" t="n">
-        <v>73.39875751874581</v>
+        <v>73.48281712506852</v>
       </c>
       <c r="D4" t="n">
-        <v>98.98263811912042</v>
+        <v>98.91975778779307</v>
       </c>
       <c r="E4" t="n">
-        <v>103.2695768345598</v>
+        <v>103.41262321233341</v>
       </c>
       <c r="F4" t="n">
-        <v>62.46250510638846</v>
+        <v>62.453419782125096</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>71.64446441448283</v>
+        <v>71.67712434606145</v>
       </c>
       <c r="C5" t="n">
-        <v>175.53417936078225</v>
+        <v>175.92053461754642</v>
       </c>
       <c r="D5" t="n">
-        <v>81.6438343194861</v>
+        <v>81.65304227086413</v>
       </c>
       <c r="E5" t="n">
-        <v>82.51662053668431</v>
+        <v>82.68878928442986</v>
       </c>
       <c r="F5" t="n">
-        <v>100.14509072128311</v>
+        <v>100.21316434403565</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>82.50158091404</v>
+        <v>82.52172612048483</v>
       </c>
       <c r="C6" t="n">
-        <v>206.96566803228023</v>
+        <v>207.17553278001225</v>
       </c>
       <c r="D6" t="n">
-        <v>123.58001570508128</v>
+        <v>122.98941730984862</v>
       </c>
       <c r="E6" t="n">
-        <v>134.37112768137666</v>
+        <v>134.1645716129399</v>
       </c>
       <c r="F6" t="n">
-        <v>144.89616188289762</v>
+        <v>144.78576266777333</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>86.52378323148093</v>
+        <v>85.77447660406949</v>
       </c>
       <c r="C7" t="n">
-        <v>81.98495329457037</v>
+        <v>81.77137794629414</v>
       </c>
       <c r="D7" t="n">
-        <v>25.125262822798796</v>
+        <v>25.110506977998902</v>
       </c>
       <c r="E7" t="n">
-        <v>21.078079510497076</v>
+        <v>21.027517468360735</v>
       </c>
       <c r="F7" t="n">
-        <v>32.8890124984544</v>
+        <v>32.83932970057565</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>27.94536846972617</v>
+        <v>27.963371458534127</v>
       </c>
       <c r="C2" t="n">
-        <v>63.09581305498274</v>
+        <v>63.11003686000427</v>
       </c>
       <c r="D2" t="n">
-        <v>46.17657202965906</v>
+        <v>46.206113634647885</v>
       </c>
       <c r="E2" t="n">
-        <v>65.78704619520266</v>
+        <v>65.78783781699319</v>
       </c>
       <c r="F2" t="n">
-        <v>49.47833559939004</v>
+        <v>49.48813299082945</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>17.50058521539843</v>
+        <v>17.512116508454962</v>
       </c>
       <c r="C3" t="n">
-        <v>34.29788879181036</v>
+        <v>34.19519828502639</v>
       </c>
       <c r="D3" t="n">
-        <v>21.419203454573697</v>
+        <v>21.42335176961778</v>
       </c>
       <c r="E3" t="n">
-        <v>30.019833699964217</v>
+        <v>30.096544757838423</v>
       </c>
       <c r="F3" t="n">
-        <v>25.30654249314035</v>
+        <v>25.290231169096852</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>45.95305548583132</v>
+        <v>45.885160641987596</v>
       </c>
       <c r="C4" t="n">
-        <v>70.57251673683207</v>
+        <v>70.8784854567881</v>
       </c>
       <c r="D4" t="n">
-        <v>94.66987388548219</v>
+        <v>94.63817079155623</v>
       </c>
       <c r="E4" t="n">
-        <v>98.77702717238813</v>
+        <v>99.05648089920032</v>
       </c>
       <c r="F4" t="n">
-        <v>61.43858159249871</v>
+        <v>61.45138268583835</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>67.67027747164741</v>
+        <v>67.5893585093782</v>
       </c>
       <c r="C5" t="n">
-        <v>168.97804289829853</v>
+        <v>169.64441680498868</v>
       </c>
       <c r="D5" t="n">
-        <v>76.56456585484807</v>
+        <v>76.21420516748867</v>
       </c>
       <c r="E5" t="n">
-        <v>79.06057678825921</v>
+        <v>78.84663754622106</v>
       </c>
       <c r="F5" t="n">
-        <v>97.66009074924835</v>
+        <v>97.83068744311491</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>76.8811645746506</v>
+        <v>77.15603859931268</v>
       </c>
       <c r="C6" t="n">
-        <v>200.27393062360306</v>
+        <v>199.62254458906372</v>
       </c>
       <c r="D6" t="n">
-        <v>115.763817024931</v>
+        <v>115.01850228430482</v>
       </c>
       <c r="E6" t="n">
-        <v>129.5686844541759</v>
+        <v>129.4396772497532</v>
       </c>
       <c r="F6" t="n">
-        <v>141.6619132822097</v>
+        <v>141.68904541152756</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>75.21007067669612</v>
+        <v>74.33025984891654</v>
       </c>
       <c r="C7" t="n">
-        <v>76.47986817093549</v>
+        <v>76.74851625876255</v>
       </c>
       <c r="D7" t="n">
-        <v>22.580673788781745</v>
+        <v>22.67133038656622</v>
       </c>
       <c r="E7" t="n">
-        <v>19.747760630859645</v>
+        <v>19.76671392927688</v>
       </c>
       <c r="F7" t="n">
-        <v>31.596874102556555</v>
+        <v>31.479294962443543</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>28.48697245337946</v>
+        <v>28.497292129418195</v>
       </c>
       <c r="C2" t="n">
-        <v>64.13166184525979</v>
+        <v>64.1876094282611</v>
       </c>
       <c r="D2" t="n">
-        <v>47.25134253649399</v>
+        <v>47.19249093410218</v>
       </c>
       <c r="E2" t="n">
-        <v>66.71267124322306</v>
+        <v>66.71709520748301</v>
       </c>
       <c r="F2" t="n">
-        <v>49.897422836011145</v>
+        <v>49.916063753139284</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>18.57308465707402</v>
+        <v>18.586762415236212</v>
       </c>
       <c r="C3" t="n">
-        <v>36.21666151354265</v>
+        <v>36.281996519046565</v>
       </c>
       <c r="D3" t="n">
-        <v>22.955949606718143</v>
+        <v>22.967584952829604</v>
       </c>
       <c r="E3" t="n">
-        <v>31.63081816525141</v>
+        <v>31.67056773609855</v>
       </c>
       <c r="F3" t="n">
-        <v>26.0563034711307</v>
+        <v>26.038833250070798</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>48.3419587151176</v>
+        <v>48.31342379682804</v>
       </c>
       <c r="C4" t="n">
-        <v>76.35572921804626</v>
+        <v>76.20628879131239</v>
       </c>
       <c r="D4" t="n">
-        <v>103.2099942113425</v>
+        <v>103.70123550442045</v>
       </c>
       <c r="E4" t="n">
-        <v>108.26013210106899</v>
+        <v>107.84489539989329</v>
       </c>
       <c r="F4" t="n">
-        <v>63.65787120135618</v>
+        <v>63.60724449297187</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>76.15571203309044</v>
+        <v>76.09851330386248</v>
       </c>
       <c r="C5" t="n">
-        <v>182.59800992803227</v>
+        <v>183.5486883809728</v>
       </c>
       <c r="D5" t="n">
-        <v>87.24776379268464</v>
+        <v>86.98951175526398</v>
       </c>
       <c r="E5" t="n">
-        <v>86.44078254025368</v>
+        <v>86.59366151938313</v>
       </c>
       <c r="F5" t="n">
-        <v>102.64811494732547</v>
+        <v>102.70552262640362</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>88.13497238495876</v>
+        <v>88.28858307841138</v>
       </c>
       <c r="C6" t="n">
-        <v>214.22147788751866</v>
+        <v>214.07930802788638</v>
       </c>
       <c r="D6" t="n">
-        <v>131.3474855812677</v>
+        <v>132.4895092302579</v>
       </c>
       <c r="E6" t="n">
-        <v>138.97756399085014</v>
+        <v>139.37172387381892</v>
       </c>
       <c r="F6" t="n">
-        <v>147.9807872081678</v>
+        <v>148.19508974510566</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>100.41136923483606</v>
+        <v>100.52607635067307</v>
       </c>
       <c r="C7" t="n">
-        <v>87.93171673783874</v>
+        <v>87.71248139888056</v>
       </c>
       <c r="D7" t="n">
-        <v>27.793014267691774</v>
+        <v>27.759679194830532</v>
       </c>
       <c r="E7" t="n">
-        <v>22.53196128776205</v>
+        <v>22.478097334454088</v>
       </c>
       <c r="F7" t="n">
-        <v>34.227564488218036</v>
+        <v>34.19625133505068</v>
       </c>
     </row>
   </sheetData>
